--- a/表结构.xlsx
+++ b/表结构.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="101">
   <si>
     <t>Table Name</t>
   </si>
@@ -166,6 +167,245 @@
   </si>
   <si>
     <t>公众号管理员表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Id</t>
+  </si>
+  <si>
+    <t>F_Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_RoleId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限菜单关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Auth_Menu_Relation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetiame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_User</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Role</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_AuthType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Authorization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_ParentId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_UserId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_User_Auth_Relation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_RoleId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_AuthId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Role_Auth_Relation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_MenuId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -239,6 +479,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -246,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -256,7 +520,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,29 +853,29 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -738,13 +1011,13 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
@@ -760,29 +1033,29 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -904,41 +1177,41 @@
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1080,13 +1353,13 @@
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
@@ -1114,4 +1387,936 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="6">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="6">
+        <v>50</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="6">
+        <v>50</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="6">
+        <v>50</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6">
+        <v>50</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6">
+        <v>200</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B16:H16"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/表结构.xlsx
+++ b/表结构.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="114">
   <si>
     <t>Table Name</t>
   </si>
@@ -98,7 +98,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>F_CreateTime</t>
+    <t>关联公号ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_GZHId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -106,27 +110,214 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>关联公号ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录账号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab_GongZhongHaoAdmin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_GZHId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_UserName</t>
+    <t>创建人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_CreateUser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_MHCatalog</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Catalog</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号信息表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画目录表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Id</t>
+  </si>
+  <si>
+    <t>F_Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_RoleId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限菜单关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Auth_Menu_Relation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetiame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -134,214 +325,123 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_CreateUser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab_MHCatalog</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_Catalog</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>漫画目录表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>公众号管理员表</t>
+    <t>F_CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_User</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Role</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_AuthType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Authorization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_ParentId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_UserId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_User_Auth_Relation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_RoleId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_AuthId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_Role_Auth_Relation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_MenuId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画定价表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画目录ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格单位元最小1元整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费标准表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价类型 次数/时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价方式 次数(章节)/时间(天数)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>F_Id</t>
-  </si>
-  <si>
-    <t>F_Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_RoleId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_URL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限菜单关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab_Auth_Menu_Relation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetiame</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单URL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>父id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_SaleType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_MHSale</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -349,63 +449,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>F_Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_Password</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab_User</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab_Role</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_AuthType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab_Authorization</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_ParentId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab_Menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_UserId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab_User_Auth_Relation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_RoleId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_AuthId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tab_Role_Auth_Relation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_MenuId</t>
+    <t>F_Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_TypeVale</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_SaleType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -522,10 +574,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -837,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,36 +900,36 @@
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -975,7 +1029,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -987,105 +1041,99 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1094,12 +1142,12 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1108,12 +1156,12 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1126,8 +1174,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
+      <c r="A20" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1136,252 +1184,287 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B34" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B35" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D36" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H36" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="7"/>
+      <c r="A37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="A39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B38:H38"/>
+  <mergeCells count="12">
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B24:H24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1406,29 +1489,29 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1458,10 +1541,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1469,15 +1552,15 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
@@ -1487,15 +1570,15 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6">
         <v>50</v>
@@ -1505,15 +1588,15 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1521,50 +1604,50 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1597,7 +1680,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1605,15 +1688,15 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1621,50 +1704,50 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1694,10 +1777,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1705,15 +1788,15 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6">
         <v>50</v>
@@ -1723,15 +1806,15 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C24" s="6">
         <v>50</v>
@@ -1741,7 +1824,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1756,10 +1839,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1767,59 +1850,59 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+      <c r="B31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1849,10 +1932,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1860,15 +1943,15 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C34" s="6">
         <v>50</v>
@@ -1878,15 +1961,15 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C35" s="6">
         <v>200</v>
@@ -1896,15 +1979,15 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1914,57 +1997,57 @@
         <v>0</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="B40" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
+      <c r="B41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -1994,10 +2077,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2005,15 +2088,15 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2021,7 +2104,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2038,51 +2121,51 @@
       <c r="A46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="B49" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
+      <c r="B50" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -2112,10 +2195,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2123,15 +2206,15 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2139,7 +2222,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2156,51 +2239,51 @@
       <c r="A55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
+      <c r="B58" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
+      <c r="B59" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
@@ -2230,10 +2313,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2241,15 +2324,15 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2257,7 +2340,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
@@ -2283,27 +2366,16 @@
       <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
@@ -2314,6 +2386,17 @@
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B55:H55"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/表结构.xlsx
+++ b/表结构.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="118">
   <si>
     <t>Table Name</t>
   </si>
@@ -458,6 +458,22 @@
   </si>
   <si>
     <t>Tab_SaleType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号和公众号关系表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_User_GZH_Relation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_UserId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_GZHId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -577,9 +593,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -891,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,29 +925,29 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1045,13 +1063,13 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
@@ -1067,29 +1085,29 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1191,13 +1209,13 @@
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
@@ -1213,29 +1231,29 @@
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
@@ -1331,41 +1349,41 @@
       <c r="A31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -1443,28 +1461,125 @@
       <c r="A40" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
+  <mergeCells count="15">
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B48:H48"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1489,29 +1604,29 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1611,43 +1726,43 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1711,43 +1826,43 @@
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1857,15 +1972,15 @@
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
@@ -1880,29 +1995,29 @@
       <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2004,13 +2119,13 @@
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="9"/>
@@ -2025,29 +2140,29 @@
       <c r="A40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -2121,13 +2236,13 @@
       <c r="A46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="9"/>
@@ -2143,29 +2258,29 @@
       <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -2239,13 +2354,13 @@
       <c r="A55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
@@ -2261,29 +2376,29 @@
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
@@ -2366,16 +2481,22 @@
       <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B55:H55"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
@@ -2391,12 +2512,6 @@
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B55:H55"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/表结构.xlsx
+++ b/表结构.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="137">
   <si>
     <t>Table Name</t>
   </si>
@@ -474,6 +474,82 @@
   </si>
   <si>
     <t>F_GZHId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛savekey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Img</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_MHId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Sort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_IsEnable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab_MHImg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -594,10 +670,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -909,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -939,15 +1017,15 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1063,13 +1141,13 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
@@ -1099,15 +1177,15 @@
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1209,13 +1287,13 @@
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
@@ -1245,15 +1323,15 @@
       <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
@@ -1349,13 +1427,13 @@
       <c r="A31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -1375,15 +1453,15 @@
       <c r="A35" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -1461,13 +1539,13 @@
       <c r="A40" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
@@ -1487,15 +1565,15 @@
       <c r="A44" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
@@ -1555,23 +1633,179 @@
       <c r="A48" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B21:H21"/>
+  <mergeCells count="18">
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B60:H60"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B10:H10"/>
@@ -1580,6 +1814,13 @@
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,15 +1859,15 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1726,15 +1967,15 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1754,15 +1995,15 @@
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1826,15 +2067,15 @@
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1854,15 +2095,15 @@
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1972,15 +2213,15 @@
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
@@ -2009,15 +2250,15 @@
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2119,13 +2360,13 @@
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="9"/>
@@ -2154,15 +2395,15 @@
       <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -2236,13 +2477,13 @@
       <c r="A46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="9"/>
@@ -2272,15 +2513,15 @@
       <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -2354,13 +2595,13 @@
       <c r="A55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
@@ -2390,15 +2631,15 @@
       <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
@@ -2481,22 +2722,16 @@
       <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B55:H55"/>
     <mergeCell ref="B46:H46"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
@@ -2512,6 +2747,12 @@
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B59:H59"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B55:H55"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
